--- a/public/application/files/jasper/templates/entradascompras.xlsx
+++ b/public/application/files/jasper/templates/entradascompras.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24280" yWindow="5000" windowWidth="25500" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="-33820" yWindow="360" windowWidth="25040" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>{compania:nombre}</t>
   </si>
@@ -27,33 +27,12 @@
     <t>{compania:sucursal}</t>
   </si>
   <si>
-    <t xml:space="preserve">Relación de entradas por compra del </t>
-  </si>
-  <si>
     <t>{fecha:inicio}</t>
   </si>
   <si>
-    <t>al</t>
-  </si>
-  <si>
     <t>{fecha:fin}</t>
   </si>
   <si>
-    <t>Reporte de Variacion de Costos</t>
-  </si>
-  <si>
-    <t>Fecha inicial</t>
-  </si>
-  <si>
-    <t>{fecha:inicial}</t>
-  </si>
-  <si>
-    <t>Fecha final</t>
-  </si>
-  <si>
-    <t>{fecha:final}</t>
-  </si>
-  <si>
     <t>CLAVE</t>
   </si>
   <si>
@@ -63,60 +42,53 @@
     <t>UNIDAD</t>
   </si>
   <si>
-    <t>COSTO A.</t>
-  </si>
-  <si>
-    <t>COSTO N</t>
-  </si>
-  <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>PORC</t>
-  </si>
-  <si>
-    <t>{prod:clave}</t>
-  </si>
-  <si>
-    <t>{prod:nombre}</t>
-  </si>
-  <si>
-    <t>{prod:unidad}</t>
-  </si>
-  <si>
-    <t>{prod:costold}</t>
-  </si>
-  <si>
-    <t>{prod:costnew}</t>
-  </si>
-  <si>
-    <t>{prod:var}</t>
-  </si>
-  <si>
-    <t>{prod:pctvar}</t>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>COSTO U. N.</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>{reporte:clave}</t>
+  </si>
+  <si>
+    <t>{reporte:nombre}</t>
+  </si>
+  <si>
+    <t>{reporte:unidad}</t>
+  </si>
+  <si>
+    <t>{reporte:cantidad}</t>
+  </si>
+  <si>
+    <t>{reporte:cu}</t>
+  </si>
+  <si>
+    <t>{reporte:sub}</t>
+  </si>
+  <si>
+    <t>Relacion de entradas por compras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -141,26 +113,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -194,147 +177,73 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -693,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -709,174 +618,131 @@
     <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="11" width="4.6640625" customWidth="1"/>
     <col min="12" max="12" width="6.83203125" customWidth="1"/>
     <col min="13" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="28">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="29.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="28">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:9" ht="28">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="22.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="5"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="12">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="11">
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
